--- a/R/analysis/data/Pt_36_M1.xlsx
+++ b/R/analysis/data/Pt_36_M1.xlsx
@@ -524,7 +524,7 @@
         <v>1.64</v>
       </c>
       <c r="N2" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>1.27</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.43</v>
+        <v>5.43</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -631,16 +631,16 @@
         <v>1.48</v>
       </c>
       <c r="K4" t="n">
-        <v>6.67</v>
+        <v>1.01</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.71</v>
+        <v>4.72</v>
       </c>
       <c r="M4" t="n">
-        <v>5.8</v>
+        <v>0.14</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0.71</v>
       </c>
       <c r="N5" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>1.35</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.86</v>
+        <v>4.86</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -807,16 +807,16 @@
         <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>0.37</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.27</v>
+        <v>4.6</v>
       </c>
       <c r="M7" t="n">
-        <v>4.95</v>
+        <v>0.71</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>1.27</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.43</v>
+        <v>5.43</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -983,16 +983,16 @@
         <v>3.44</v>
       </c>
       <c r="K10" t="n">
-        <v>6.67</v>
+        <v>1.01</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.71</v>
+        <v>4.72</v>
       </c>
       <c r="M10" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>4.25</v>
       </c>
       <c r="M11" t="n">
-        <v>2.16</v>
+        <v>1.29</v>
       </c>
       <c r="N11" t="n">
-        <v>-2</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>0.58</v>
@@ -1163,16 +1163,16 @@
         <v>2.8</v>
       </c>
       <c r="K13" t="n">
-        <v>5.55</v>
+        <v>0.46</v>
       </c>
       <c r="L13" t="n">
-        <v>0.32</v>
+        <v>3.92</v>
       </c>
       <c r="M13" t="n">
-        <v>4.01</v>
+        <v>0.83</v>
       </c>
       <c r="N13" t="n">
-        <v>0.84</v>
+        <v>3.08</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>1.41</v>
       </c>
       <c r="L15" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>8.9</v>
       </c>
       <c r="K16" t="n">
-        <v>6.77</v>
+        <v>0.3</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.21</v>
+        <v>4.78</v>
       </c>
       <c r="M16" t="n">
-        <v>4.24</v>
+        <v>2.83</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>1.46</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.14</v>
+        <v>5.14</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
@@ -1509,10 +1509,10 @@
         <v>1.16</v>
       </c>
       <c r="K19" t="n">
-        <v>7.17</v>
+        <v>0.1</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.07</v>
+        <v>5.07</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
@@ -1576,7 +1576,7 @@
         <v>1.41</v>
       </c>
       <c r="N20" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0.58</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M21" t="n">
         <v>1.48</v>
@@ -1687,16 +1687,16 @@
         <v>2.16</v>
       </c>
       <c r="K22" t="n">
-        <v>5.66</v>
+        <v>1.88</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>4.1</v>
+        <v>1.27</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0.71</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.26</v>
@@ -1863,16 +1863,16 @@
         <v>1.51</v>
       </c>
       <c r="K25" t="n">
-        <v>5.71</v>
+        <v>2.17</v>
       </c>
       <c r="L25" t="n">
-        <v>1.54</v>
+        <v>4.04</v>
       </c>
       <c r="M25" t="n">
-        <v>6.36</v>
+        <v>0.71</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.5</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0.71</v>
       </c>
       <c r="N26" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>2.12</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.63</v>
@@ -2043,16 +2043,16 @@
         <v>1.19</v>
       </c>
       <c r="K28" t="n">
-        <v>5.54</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.42</v>
+        <v>3.92</v>
       </c>
       <c r="M28" t="n">
-        <v>4.36</v>
+        <v>0.83</v>
       </c>
       <c r="N28" t="n">
-        <v>0.58</v>
+        <v>3.08</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
